--- a/账本.xlsx
+++ b/账本.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eyderoe\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31F5F6F-B7E1-45CB-84A7-371F19E05896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC57B40-CE39-4501-9ABC-8F6E54D29581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>O*e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>a380</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冤种</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,11 +355,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -383,17 +372,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>172</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
